--- a/data/trans_bre/P23_8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-0,76</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,25%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>39,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39,72%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,04%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-18,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,52</t>
+          <t>-1,2; 3,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,52</t>
+          <t>-0,65; 3,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,46</t>
+          <t>-0,44; 4,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 3,07</t>
+          <t>-0,82; 6,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 105,52</t>
+          <t>-4,44; 2,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 132,78</t>
+          <t>-6,57; 1,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 105,59</t>
+          <t>-21,0; 101,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 30,6</t>
+          <t>-16,33; 115,08</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 115,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; 115,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-31,25; 23,72</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-38,68; 11,93</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,1%</t>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-31,87%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,76</t>
+          <t>-1,53; 6,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,0</t>
+          <t>-4,02; 3,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,25</t>
+          <t>-2,6; 2,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 5,94</t>
+          <t>-2,6; 5,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 136,72</t>
+          <t>-6,84; 5,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 80,85</t>
+          <t>-10,75; 1,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 62,44</t>
+          <t>-24,54; 149,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 69,62</t>
+          <t>-46,16; 81,71</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-41,96; 64,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-28,6; 96,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-49,59; 73,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-59,86; 13,59</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-40,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-44,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60,53%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 6,54</t>
+          <t>-5,93; 6,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 2,27</t>
+          <t>-16,66; 2,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 3,99</t>
+          <t>-8,07; 4,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-4,19; 12,4</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-64,49; 233,45</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-87,92; 65,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 88,2</t>
+          <t>-62,25; 206,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-92,54; 75,33</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-66,31; 126,37</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-47,58; 442,6</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-0,77</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28,88%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,26%</t>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32,85%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-6,25%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-21,62%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,47</t>
+          <t>-0,66; 3,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,23</t>
+          <t>-1,88; 2,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,45</t>
+          <t>-0,95; 2,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,15</t>
+          <t>-0,41; 4,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 88,2</t>
+          <t>-3,84; 2,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 56,61</t>
+          <t>-6,97; 0,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 53,23</t>
+          <t>-10,81; 78,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 20,45</t>
+          <t>-28,08; 54,28</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 54,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 77,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-27,93; 22,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-41,13; 1,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,59</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>22,86%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>39,49%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>40,36%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>39,72%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-6,04%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-18,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.53046484612806</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.660826129069465</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.293043620292017</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.027116925665121</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.7595943350275247</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-2.363415070382946</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3415601561619125</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4430880973562501</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4181553362144155</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4113390085941971</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.06044124868235749</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1691195994117227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 3,55</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 3,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 4,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 6,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 2,53</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; 1,41</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-21,0; 101,85</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,33; 115,08</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 115,2</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 115,89</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-31,25; 23,72</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-38,68; 11,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.7906923949281915</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4431520311132112</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4178745912121072</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6682816566031918</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.438992050297395</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-6.233456497430081</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1451963439611592</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1262391122036005</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.06668919715528636</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.09647960656626545</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.3124724415507844</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3772701381212633</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.095755537147201</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.74781744887674</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.007076877043672</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.066169197365292</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.528074795238908</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.585710249143048</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.200316269207203</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.271517939638963</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.171163829887238</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.209480034851472</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.237227542302981</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1370333107397394</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-4,82</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>37,95%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-4,87%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>17,15%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-8,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-31,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 6,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 3,08</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 2,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 5,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-6,84; 5,8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,75; 1,59</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-24,54; 149,07</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-46,16; 81,71</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-41,96; 64,49</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-28,6; 96,56</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-49,59; 73,43</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-59,86; 13,59</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.761443900143548</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.01006009208245756</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2046521137060782</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.414931046498841</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.925370070252661</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-5.028089969028808</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3034477107581976</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.001706064165291348</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.04183681764521043</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1838985291818186</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.08002190485014975</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.3304964770382508</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-44,5%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-13,12%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>60,53%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.863177422613763</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.008449766232191</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.610980409603204</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.316719921526426</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-6.835164311462741</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-10.96812154591817</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2579715710795994</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.462474089918623</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4253187660688956</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2664573711594951</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.4959490666530359</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.6021511205109703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,93; 6,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,66; 2,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 4,92</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 12,4</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-62,25; 206,37</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-92,54; 75,33</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-66,31; 126,37</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-47,58; 442,6</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.601901431096933</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.1135772662105</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.26971636192353</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.605681034260298</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.798576301440283</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.245445934871487</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.393044827503819</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8409657376267224</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6576452765774711</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.996366019617778</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.7343092367303362</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.1261249990232479</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,11</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26,49%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>15,9%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>32,85%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-6,25%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-21,62%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.6787536082566943</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.254269717427588</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.998059928487768</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.961345655350514</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1178758363160561</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4015747291983337</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2208498076681733</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.6171879665749118</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 3,57</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 2,21</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 2,58</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 4,79</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 2,34</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; 0,13</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-10,81; 78,6</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-28,08; 54,28</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-14,82; 54,17</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 77,04</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-27,93; 22,41</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-41,13; 1,1</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.324504564896483</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.41892896029721</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.80678109577645</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.61461070943762</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6092993209157144</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.9073948428206697</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7267207879964649</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4568309519823857</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.457124607593931</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.571818459039806</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.417079716970151</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.12511160437384</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.247496971699022</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7733853753473132</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.081630519196664</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>4.374146457786651</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.50266095925178</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.401782065192198</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.8234536287721507</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.511291227129936</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.7697938998045397</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-2.984949639504438</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2911645685799064</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.0782366178162774</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.144814392002781</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3401600264775774</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.06245452543379621</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.2090631727608119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4148869574900517</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.599548269784866</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.081839296697263</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3939199210132766</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.842430163633105</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-6.848825536361941</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08272932418298434</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2527097173745334</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1659503399101922</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.04628086314800893</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.279302458424822</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.403319458370812</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.62686974689722</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.304144549409111</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.584508399127114</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.969758221270566</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.341142635540095</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.265261343975553</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8257010746849323</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5903129917486803</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.5288671213069247</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8018488868985417</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2241219026546994</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.02487639808817956</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
